--- a/script_for_suprim_court_data/courtdata.xlsx
+++ b/script_for_suprim_court_data/courtdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2461,6 +2461,6610 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>०६९-CR-०८५०</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>११९०७०</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२२</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>प्रेम प्रकाश शाही</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>२०७१-१०-२९</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119070.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>१६</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>०६९-WO-११६७</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>११९००३</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२२</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>केदार बराल</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>लोक सेवा आयोग केन्द्रिय कार्यालय समेत १५</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>२०७२-०४-२६</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119003.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>०६९-WO-११७३</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>११९०६४</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२३</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>गगन ठकुरी समेत ४</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>काठमाण्डौ महानगरपालिका कार्यालय बाग्दरवार समेत २</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>२०७२-०५-२९</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119064.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>०६९-WO-११७२</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>११९०५२</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२३</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>कोमल नाथ शिवाकोटी समेत ३</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत इलाम समेत ४</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>२०७२-१२-१९</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119052.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>१६</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>०६९-WO-११७१</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>११९०४९</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२३</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>उदय किशोर तिवारी समेत २</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>त्रिभुवन बिश्वबद्यािलय सभा किर्तिपुर समेत ४</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>२०७४-११-०२</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119049.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>०६९-WO-११८०</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>११९१०३</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२४</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>रामजुन थापा</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्रि तथा मनित्रपरिषदको कार्यालय सिंहदरवार समेत ५</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>२०७३-०३-१४</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119103.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>२५</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>०६९-CI-१०७०</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>११९३४८</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२४</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>मोही नामसारी</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>मन्जु कुमारी सिंह</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>लक्ष्मी सरदार बांतर</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>२०७३-०६-०७</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119348.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>३०</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>०६९-RI-१८२७</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>११९२८०</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२४</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>घर भत्काई</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>देवनारायण चौधरी र प्रकाश कुमार के।सी।</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>देव राज पाण्डेय</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>२०७४-०८-०३</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119280.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>३१</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>०६९-WO-११७७</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>११९०९९</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२४</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>सुरेश पण्िडत समेत ५</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>वन तथा भु।संरक्षण मन्त्रालय सिंहदरवार समेत ५</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>२०७५-०२-०८</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119099.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>३२</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>०६९-WO-११७८</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>११९१००</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२४</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>खडानन्द शर्मा समेत २</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>वन तथा भु।संरक्षण मन्त्रालय सिंहदरवार समेत ५</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>२०७५-०२-०८</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119100.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>३४</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>०६९-CI-१०५५</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>११९१८६</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२४</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>जग्गा खिचोला</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>माया महरा चमार समेत ९</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>गोपाल प्रसाद यादव</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>२०८०-०६-०९</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119186.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>३५</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>०६९-CI-१०५६</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>११९१८८</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२४</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>राजिनामा बदर</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>चुल्हार्इ महरा चमार , राजिन्द्र महरा चमार र पतसिया चमैन</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>गोपाल प्रसाद यादव</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>२०८०-०६-०९</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119188.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>०६९-RC-००९८</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>११९१७७</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२५</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>लाक्पा गुरुङ</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>२०७१-११-२९</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119177.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>२०</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>०६९-RC-०१००</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>११९१८३</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२५</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>कार्माछुल्डीम गुरुङ</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>२०७१-११-२९</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119183.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>२६</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>०६९-RB-००५४</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>११९२५१</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२५</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>राजस्व र बाणिज्य</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>राजश्व अन्य</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>नेपाल क्रेडिट एण्ड कमर्श बैंक लि। कर्पोरेट कार्यालयको तर्फबाट अख्तियार प्राप्त अमृत चरण श्रेष्ठ र ऐ। बैंकको नवर्िाचन अधिकृत अधविक्ता श्यामकुमार खत्री</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>नेपाल इन्स्योरेन्स कम्पनी लि।को अख्तियार प्राप्त महाप्रवन्धक केशव दुवाडी</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>२०७२-०९-१९</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119251.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>२७</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>०६९-WS-००७२</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>११९१४२</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२५</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>धनेश्वर पौडेल समेत १५</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>सम्माननीय राष्ट्पति, राष्ट्पतकिो कार्यालय शितलनिवास समेत ४</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>२०७२-१०-०७</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119142.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>०६९-CI-१०५९</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>११९२०७</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२७</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>रमेश झा</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>उच्च माध्यमिक विद्यालय, आमसाल बसहा ४, उदयपुर समेत ६</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>२०७०-१०-०६</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119207.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>०६९-CI-१०५९</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>११९२०७</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२७</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>रमेश झा</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>उच्च माध्यमिक विद्यालय, आमसाल बसहा ४, उदयपुर समेत ६</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>२०७०-१०-०६</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119207.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>०६९-WO-११९६</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>११९२१०</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२९</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>नमस् बुद्ध हार्इड्ोपावर प्रा।लि। का अ।प्रा। वलराम प्रसाद उप्रेती</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>उर्जा मन्त्रालय, सिंहदरवार समेत ३</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>२०७०-०७-११</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119210.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२००</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>११९२७२</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२९</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ओम प्रकाश अर्याल</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>राष्ट्रपतिको कार्यालय सितल निवास समेत ५</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>२०७१-०६-०८</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119272.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>०६९-WO-११९९</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>११९२७०</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२९</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>मदन मोहन दास श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>बैदेशिक रोजगार न्यायाधीकरण समेत ३</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>२०७१-०६-३१</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119270.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>२६</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>०६९-CR-०८६४</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>११९२८७</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२९</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>वैदेशिक रोजगार</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>पहलमान तामाङ</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>२०७२-०५-३१</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119287.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>२८</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>०६९-CR-०८६८</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>११९३०९</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२९</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>प्रेम बहादुर मगर</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>२०७२-०९-२४</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119309.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>२९</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>०६९-CR-०८६७</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>११९२९२</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२९</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>गोरे भन्ने गोविन्द पुन</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>२०७३-०२-०६</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119292.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>३०</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>०६९-CR-०८६६</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>११९२९१</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२९</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>रामकुमार यादव</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>२०७३-०२-३०</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119291.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>३४</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>०६९-CR-०८६३</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>११९२८६</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>२०७०-०१-२९</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>लागु ‌‌औषधी हिरोइन</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>श्याम महतो</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>२०७४-०६-२९</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119286.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>२</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२०४</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>११९३०१</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>२०७०-०१-३०</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>नेत्र प्रसाद भण्डारी</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्रि तथा मन्त्रपिरिषदको कार्यालय समेत ८</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>२०७०-११-२७</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119301.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>३</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२०६</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>११९३०३</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>२०७०-०१-३०</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>रामवलि शाह</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्रि तथा मन्त्रपिरिषदको कार्यालय समेत ८</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>२०७०-११-२७</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119303.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>४</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२०५</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>११९३०२</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>२०७०-०१-३०</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>पवित्रामाया खरेल</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्रि तथा मन्त्रपिरिषदको कार्यालय समेत ८</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>२०७०-११-२७</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119302.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>५</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>०६९-CI-१०६९</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>११९३४०</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>२०७०-०१-३०</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>यमुना खत्रि , अर्जन बहादुर खत्रि र सुदर्शन खत्रि</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>पूर्णध्वज खत्रि</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>२०७०-११-२८</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119340.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२०१</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>११९२८४</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>२०७०-०१-३०</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>अधिवक्ता रामराज शिवाकोटी</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>न्याय परिषद सचिवालय रामशाहपथ समेत</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>२०७१-०३-१८</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119284.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२०८</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>११९३४९</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>२०७०-०१-३१</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>छविलाल राउत अहिर</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>गृह मन्त्रालय समेत ५</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>२०७२-०५-२३</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119349.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>०६९-CR-०८७५</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>११९३८१</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>२०७०-०१-३१</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>विर शरण चौधरी</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>२०७२-११-२७</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119381.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>१६</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२२१</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>११९४४४</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>२०७०-०२-०३</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>रिंकु कुमारी झा</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>परिक्षा नियन्त्रक प।न।िका।टि।यू।बल्खु समेत ४</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>२०७६-११-२१</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119444.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२२२</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>११९४४५</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>२०७०-०२-०३</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>उमेश प्रसाद साह समेत २</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>अ।दु।अ।आ।टंगाल समेत ४</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>२०७७-०३-१६</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119445.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>०६९-CI-१०९०</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>११९४५१</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>२०७०-०२-०३</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>मु।स गरी आफ्नो हकमा समते सुशिला स्वांर</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>करुणा स्वांर</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>२०७७-१२-१६</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119451.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>४</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>०६९-CI-११०६</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>११९५२९</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>२०७०-०२-०५</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>निषेधाज्ञा</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>प्रकाश विक्रम अधिकारी</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>ललतिपुर उपमहानगरपालकिा कार्यालय पुल्चोक, ललतिपुर , ललतिपुर उपमहानगरपालकिा कानून महाशाखा पुल्चोक, ललतिपुर र ललतिपुर उपमहानगरपालकिा नगर प्रहरी बल, पुल्चोक ललतिपुर</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>२०७०-११-०५</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119529.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>०६९-WS-००७४</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>११९४६१</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>२०७०-०२-०५</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>मिङमार गेल्जेन शेर्पा</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्री तथा मन्त्रीपरिषद कार्यालय समेत ३</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>२०७१-०५-१२</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119461.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>३</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>०६९-CR-०८९४</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>११९५८६</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>२०७०-०२-०६</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>भ्रष्टाचार</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>केशवराज कडरिया</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>२०७०-११-२०</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119586.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>५</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२२७</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>११९४९६</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>२०७०-०२-०६</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>अधिवक्ता श्रीकृष्ण ुसुवेदी समेत ३</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्री तथा मन्त्रीपरिषद कार्यालय समेत ३</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>२०७२-०९-०८</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119496.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>०६९-CR-०८८३</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>११९५४६</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>२०७०-०२-०६</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार र त्रिभुवन विमानस्थल भन्सार कार्यालय</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>गंगा कुमारी वि।क। र ऋषिराम वि।क।</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>२०७२-०९-२४</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119546.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>०६९-CR-०९१०</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>११९७४६</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१०</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>भ्रष्टाचार</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>मोहन कुमार नेपाल</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>२०७१-०८-०४</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119746.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>२३</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>०६९-CI-११५३</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>११९८१४</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१०</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>दशनलाल चौधरी</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>राधादेवी चौधरी समेत ६ जना</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>२०७१-११-२०</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119814.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>२</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>०६९-CR-०९२४</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>११९८७६</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१३</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>लुटपिट</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>गंगा प्रसाद दास कथवनिया</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>पवित्री देवी , राम सागर दास कथवनिया र सौदागार दास कथवनिया</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>२०७१-०५-१९</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119876.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>०६९-WH-००७९</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>११९८४९</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१४</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>बन्दीप्रत्यक्षीकरण</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>अमेरकिन नागरकि र्इकवाल हेकका हकमा अधिवक्ता नारायण श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>गृह मन्त्रालय सिंहदरवार समेत ८</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२९</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119849.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>०६९-CR-०९३५</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>११९८९२</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१४</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>चोरी</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>मेन प्रसाद वस्ती</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>२०७२-०३-२४</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119892.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>०६९-CI-११६२</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>११९९०६</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१६</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>धनेश्वर प्रसाद चौधरी</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>जिल्ला प्रहरी कार्यालय सुनसरी र ऐ।का कार्यालयका प्रमुख प्रहरी उपरिक्षक शौरभ राना</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>२०७४-११-०६</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119906.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२६०</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>११९८८६</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१६</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>मारुति ट्रेडिङ्ग प्रा।लि।का अ।प्रा।अरुण कुमार खण्डेलवाल</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>राजश्व न्यायाधिकरण काठमाण्डो समेत २</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>२०७५-१०-१५</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119886.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>२०</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>०६९-CI-११६३</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>११९९०७</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१६</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>सुन्दरी सुनार्नी , खगेन्द्र बहादुर सुनार यात्री र अर्जुन कुमार ढकामीण् भिल्को</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>काशीराम बुढा र बीरचन्द्र बुढा</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>२०७९-०६-२४</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119907.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>०६९-CI-११६४</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>११९९१०</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१६</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>निर्णय वदर</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>नाती ताम्राकार , कान्छा ताम्राकार , राम कृष्ण ताम्राकार र मु।स।गर्ने रविन्द्र ताम्राकार</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>आशाकाजी ताम्राकार</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>२०७९-०१-१९</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119910.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>१६</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२६५</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>११९९०८</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१७</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>हरि बहादुर थापा मगर</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत जनकपुर समेत ३</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>२०७१-०५-२६</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119908.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२६४</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>११९९०३</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१७</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>अवध लाल साह</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्रि तथा मन्त्रपिरिषदको कार्यालय सिंहदरवार समेत ८</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>२०७६-०२-०२</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119903.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२६३</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>११९९०१</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>२०७०-०२-१७</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>मार्इला श्रेष्ठ समेत ५</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>मालपोत कार्यालय डिल्लीबजार समेत २</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>२०७८-०५-२७</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119901.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>०६९-WH-००८०</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>११९९५९</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२१</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>बन्दीप्रत्यक्षीकरण</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>रितेश खतिवडा</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>काठमाडौं जिल्ला अदालत समेत ३</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>२०७०-०६-०१</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119959.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२७८</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>११९९७३</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२१</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>दयाराम महर्जन समेत ६</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्री तथा मन्त्रीपरिषद कार्यालय समेत ५</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>२०७२-०४-१९</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119973.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>०६९-CI-११७५</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>११९९९४</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२१</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>घरखाली गराई पाऊ</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>अनुमति प्राप्त टिकाराम श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>सन्जु महर्जन</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>२०७७-१२-२२</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119994.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>०६९-CR-०९५५</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>१२०००७</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२१</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>वैदेशिक रोजगार</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>गजेन्द्र बहादुर हमाल</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>२०८०-०३-१०</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120007.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>०६९-CR-०९६३</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>१२००२२</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२२</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>नक्कली प्रमाण पत्र</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>बालकृष्ण मेहता</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>२०७१-०९-२४</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२८४</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>११९९९९</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२२</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>मोहन प्रकाश चन्द</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>नेपाल खाद्य संस्थान केन्द्रिय कार्यालय समेत ५</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>२०७१-१०-२५</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119999.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२८३</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>११९९९७</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२२</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>शोभा चन्द्र मिश्र</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>स्वास्थ्य तथा जनसंख्या मन्त्रालय समेत ६</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>२०७१-११-१३</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_119997.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>२०</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>०६९-CR-०९५६</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>१२००१२</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२२</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>लागु ‌‌औषधी हिरोइन</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>नैतुल्लाह भन्ने शेष अनाय तुल्लाह</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>२०७२-०३-३०</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120012.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>०६९-CR-०९५९</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>१२००१५</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२२</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>जलन्धर राजवंशी र मालावती राजवंशी</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>२०७२-०६-११</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120015.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>२२</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>०६९-CR-०९५७</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>१२००१३</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२२</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>लागु ‌‌औषधी हिरोइन</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>शिवशंकर लामा</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>२०७२-०७-१९</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120013.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२९५</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>१२००५७</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२७</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>अन्जना ओझा समेत १२</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>लोक सेवा आयोग केन्द्रिय कार्यालय अनामनगर समेत २</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>२०७०-०६-०६</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120057.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>०६९-CI-११८३</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>१२०१५१</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२७</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>मोही नामसारी</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>गोविन्दहरि अमात्य</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>शिव नारायण चौधरी र भगलु चौधरी</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>२०७१-०६-३१</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120151.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>०६९-CI-११८४</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>१२०१५३</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२७</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>मोही नामसारी</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>गोविन्दहरि अमात्य</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>शिवनारायण चौधरी</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>२०७१-०६-३१</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120153.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>०६९-CI-११८५</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>१२०१५५</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२७</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>विविध</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार उर्जा मन्त्रालय सिंहमन्त्रालय र आफ्नो हकमा समेत ऐ।को सचिव हरिराम कोइराला</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार र टार्इम्स इनर्जी प्रा।लि।को तर्फबाट ऐ।को अध्यक्ष चन्द्रमणि बास्कोटा</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>२०७२-११-१७</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120155.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>२०</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२९८</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>१२००६३</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२७</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>अधिकारपृच्छा</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>भुवन दत्त जोशी</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>नापी कार्यालय कञ्चनपुर समेत ५</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>२०७४-१०-०९</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120063.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२९७</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>१२००६२</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२७</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>भुवन दत्त जोशी</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>लोक सेवा आयोग केन्द्रिय कार्यालय, अनामनगर समेत ११</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>२०७४-१०-०९</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120062.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>२</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>०६९-WO-१२९९</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>१२००९७</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२८</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>मित्रा कुमारी देबकोटा समेत १५</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>लोक सेवा आयोग के।का।समेत ३</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>२०७०-०६-०६</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120097.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>४</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>०६९-RB-००५५</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>१२०२१७</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२८</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>राजस्व र बाणिज्य</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>राजश्व अन्य</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>शिवाको कन्स्टरक्सन प्रा।लि।को मन्जुरी प्राप्त गरी शाशैसुर निर्माण सेवा तथा सप्लार्यसको प्रोपार्इटर भेष बहादुर खड्का</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार, स्थानीय विकास मन्त्रालय सिंहदरवार समेत ८</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>२०७२-०९-२३</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120217.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>२</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>०६९-CI-११९६</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>१२०२०४</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>२०७०-०२-२९</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>निषेधाज्ञा</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>गोर्खा ब्रुअरी प्रा।लि।को तर्फबाट अधिकार प्राप्त निर्देशक सुरेन्द्र सिलवाल</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>आन्तरिक राजश्व कार्यालय, भरतपुर चितवन र ऐेे।का प्रमुख कर अधिकृत</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>२०७३-१०-१०</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120204.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>०६९-WS-००७७</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>१२०२५०</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>२०७०-०२-३१</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>भरत बहादुर कुंवर समेत ५</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्रि तथा मन्त्रपिरिषद कार्यालय समेत ५</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>२०७२-१०-०७</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120250.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>५</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३१६</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>१२०३०८</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०३</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>विनोद अर्याल</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>अर्थ मन्त्रालय सिंहदरवार समेत ७</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>२०७०-०७-२६</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120308.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३१३</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>१२०३०२</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०३</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>हरिनारायण प्रसाद यादव समेत २</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत हेटौंडा समेत ४</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>२०७२-१०-१४</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120302.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>०६९-CR-०९७१</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>१२०३७०</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०३</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>नक्कली प्रमाण पत्र</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>विश्वनाथ प्रसाद तेली</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>२०७३-१०-११</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120370.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३१४</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>१२०३०६</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०३</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>गोपीकृष्ण पराजुली</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>स्वास्थ्य तथा जनसंख्या मन्त्रालय समेत ४</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>२०७५-०३-२४</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120306.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२०६</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>१२०३६९</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०३</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>अश दपोट</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>सुरज पण्डित कुमहार</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>मजा देवी , विश्वराज पंडित कुमहार र खखरी कुमारी देवी</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>२०७५-०३-२०</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120369.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३११</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>१२०२९५</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०३</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>संस्थागत विद्यालय शिक्षक युनियन इस्टु का अ।प्रा। मुकुन्द गौतम समेत ३</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>शिक्षा मन्त्रालय सिंहदरवार समेत १२</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>२०७६-०५-१६</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120295.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३१२</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>१२०२९८</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०३</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>नेपाल विद्यालय कर्मचारी युनियनका अ।प्रा। कमल प्रसाद खतिवडा समेत ३</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>शिक्षा मन्त्रालय सिंहदरवार समेत ४</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>२०७६-०५-१६</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120298.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२०५</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>१२०३६८</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०३</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>हरिशंकर सिंह</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>सुरुज देवी , सावित्रि देवी । , धर्मेन्द्र प्रसाद सि‌ह , राम बालक सिंह , सुधा सिन्हा , राम बाबु सिंह , सुशिला सिंह , रामेश्वर सिंह , अनिता देवी सिंह , राजेश्वर सिंह र सविता देवी सिंह</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>२०७९-०६-३०</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120368.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>०६९-RC-०१०७</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>१२०३७१</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०४</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>माया शर्मा</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>२०७०-१२-०७</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120371.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२०९</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>१२०३९१</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०४</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>कैलीदेवी साह तेली</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>राम प्रसाद बर्णवाल , वरिाटनगर उपमहानगरपालिका कार्यालय वरिाटनगर र विराटनगर उपमहानगरपालिका कार्यालयका कार्यकारी अधिकृत गोपाल प्रसाद रेग्मी</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>२०७१-०१-२५</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120391.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>०६९-RC-०१०८</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>१२०३७६</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०४</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>सेती मुखिया भन्ने सेतीराम बोहरा</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>२०७१-०५-२०</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120376.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३१७</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>१२०३५१</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०४</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>रामलक्ष्मी श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत पाटन समेत ४</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>२०७१-०७-२७</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120351.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३१८</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>१२०३५७</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०४</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>विजय कुमार दुगड</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>महानगरिए प्रहरी परसिर हनुमानढोका समेत ६</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>२०७१-०७-२०</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120357.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२१०</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>१२०३९७</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०४</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>लेनदेन</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>मु।स। गर्ने रामाकान्त चौधरी</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>प्रेमलाल शाह कलवार</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>२०७३-०४-२०</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120397.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>२२</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२१२</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>१२०४०६</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०४</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>निषेधाज्ञा</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>वासुदेव डागा</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>राम कुमार कामत</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>२०७३-०५-०७</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120406.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>२३</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३२०</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>१२०३६०</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०४</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>झुमा देवि भण्डारी</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत विराटनगर समेत १३</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>२०७३-०५-२४</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120360.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३३१</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>१२०४८७</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०७</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>ईश्वर चौधरी समेत २४</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>लोकसेवा आयोग केन्द्रिय कार्यालय अनामनगर</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>२०७१-१२-०८</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120487.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>२०</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३३४</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>१२०५०७</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०७</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>नेपाल राष्टि्रय कर्मचारी संगठन निजामति केन्द्रिय समितकिा अ।प्रा।स। उपेन्द्र कुमार सिंह</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>राष्ट्रपतिको कार्यालय सितलनिवास समेत ९</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>२०७२-०५-१६</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120507.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>२४</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३३३</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>१२०५०६</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०७</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>विश्व पि्रया मल्ल आचार्य</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>विशेष अदालत समेत ५</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>२०७३-०७-२२</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120506.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>२५</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३२९</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>१२०४८२</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०७</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>सदिक मिया अंसारी</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत हेटौंडा समेत ११</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>२०७३-०६-०४</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120482.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>२६</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३३०</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>१२०४८५</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०७</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>नारायण दास श्रेष्ठ समेत ७</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>अख्तियार दुरुपयोग अनुसन्धान आयोग समेत ५</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>२०७४-०१-१९</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120485.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>२९</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२२३</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>१२०५४५</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०७</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>अच्युतम प्रसाद उपाध्याय ढकाल</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>जानकीदेवी ढकाल , विष्णु ढकाल र हरिहर कुमार ढकाल</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>२०७६-११-१९</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120545.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३३७</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>१२०५२६</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>२०७०-०३-०९</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>बिनोद अर्याल</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>अर्थ मन्त्रालय सिंहदरवार समेत ७</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>२०७०-०७-२६</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120526.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२३१</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>१२०६१९</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१०</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>लेनदेन</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>काजीकृष्ण तण्डुकार</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>उत्तम प्रसाद उप्रेती</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>२०७२-०५-३१</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120619.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३४७</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>१२०६१४</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>२०७०-०३-११</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>किशन चौधरी समेत ४</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>त्रियुगा नगरपालिकाको कार्यालय समेत ५</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>२०७४-१०-११</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120614.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>२०</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२३३</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>१२०६४२</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१२</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>निषेधाज्ञा</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>हरि बहादुर खड्गी</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>पुरुषोत्तम घिमिरे</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>२०७१-११-११</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120642.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२३४</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>१२०६४५</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१२</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>निषेधाज्ञा</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>विद्या खड्गी</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>पुरुषोत्तम घिमिरे</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>२०७१-११-११</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120645.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>२२</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३५२</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>१२०६३८</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१२</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>अखिल नेपाल प्रगतिशील किसान संघका अ।प्रा।केन्द्रिय अध्यक्ष शम्भु प्रसाद पाण्डे</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>सम्माननीय अध्यक्ष प्रधानमन्त्रि तथा मन्त्रपिरिषदको कार्यालय समेत १३</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>२०७२-०३-०९</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120638.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२३७</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>१२०७१२</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१३</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>निर्णय वदर</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>कृष्०ा बहादुर कसार्इ र दिल बहादुर कसार्इ</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>दिपक विक्रम शाह र प्रविर शम्शेर ज।ब।रा</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>२०७१-०६-२६</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120712.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२३५</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>१२०७०३</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१३</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>निषेधाज्ञा</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>महेश राय</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>श्री माध्यमिक विद्यालय भेडियाही पुलकाहा समेत १७ जना</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>२०७१-११-०४</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120703.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२३९</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>१२०७४६</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१४</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>नवराज नेपाल</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>अल्पार्इन कार्ड सर्भिसेज प्रा।लि। , नेपाल इन्भेष्टमेन्ट बैंक लि। दरवार मार्ग काठमाडौं , कर्र्जा सूचना केन्द्र लिमिटेड हेरिटेज प्लाजा कमलादी काठमाडौं र रविन्द्र बहादुर मल्ल</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>२०७१-०८-२२</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120746.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३६३</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>१२०७४०</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१४</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>रामचन्द्र ठाकुर वडही समेत २</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत जनकपुर समेत ५ , ललितपुर जिल्ला अदालत , तहसिलदार ललितपुरजिल्ला अदालत र युनिभर्सल डेभलेपमेन्ट बैक लिमिटेड</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>२०७२-१०-२८</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120740.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>०६९-CR-१००७</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>१२०७४२</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१४</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>पृथ्वी विक्रम चौधरी</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>२०७३-०५-१५</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120742.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>०६९-RC-०११२</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>१२०७८९</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१६</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>पूर्ण लिम्बु</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>२०७०-१२-०७</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120789.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>०६९-RC-०११३</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>१२०७९३</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१६</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>भक्तबहादुर थापा</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२१</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120793.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>०६९-RC-०१११</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>१२०७८१</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१६</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>भरत गिरी</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२१</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120781.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>५</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०२२</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>१२०९४७</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>२०७०-०३-१८</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>मानव वेचविखन तथा ओसार पसार</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>रामप्रसाद भूषाल</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>२०७२-०१-०७</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120947.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२६३</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>१२१०६३</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२०</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>हक कायम</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>मु।स। गर्ने द्धारिका लाल श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>गुह्येधर तुलाधर</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>२०७१-०८-१७</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121063.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२६४</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>१२१०६४</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२०</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>हक कायम</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>मु।स। गर्ने द्धारिका लाल श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>लोकरत्न तुलाधर</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>२०७१-०८-१७</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121064.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२६५</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>१२१०६५</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२०</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>हक कायम</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>मु।स।गर्ने द्धारिका लाल श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>मु।स। गर्ने बाल हरि रावल र लोकरत्न तुलाधर</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>२०७१-०८-१७</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121065.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>०६९-RB-००६१</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>१२१०२६</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२१</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>राजस्व र बाणिज्य</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>राजस्व र वाणिज्य</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>अर्जुन विक्रम साही र रोना साही</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>२०७२-०४-२०</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121026.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>०६९-RB-००६२</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>१२१०२७</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२१</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>राजस्व र बाणिज्य</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>राजस्व र वाणिज्य</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>दलबहादुर अधिकारी</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>२०७२-०४-२०</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121027.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>०६९-RB-००६०</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>१२१०२५</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२१</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>राजस्व र बाणिज्य</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>राजस्व र वाणिज्य</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>जगदिशलाल श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>२०७२-०४-२०</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121025.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>२०</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>०६९-RB-००६३</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>१२१०२८</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२१</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>राजस्व र बाणिज्य</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>राजस्व र वाणिज्य</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>शैलेस तिखत्री समेत ६ जना</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>२०७२-०४-२०</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121028.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>०६९-RB-००६४</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>१२१०२९</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२१</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>राजस्व र बाणिज्य</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>राजस्व र वाणिज्य</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>हितजङ गुरुङ</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>२०७२-०४-२०</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121029.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२८८</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>१२१२६३</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२४</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>निर्णय वदर</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>इन्द्रकुमारी देवी चौधरीको हकमा हरेन्द्र कुमार चौधरी</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>नारायण प्रसाद थारु</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>२०७२-१२-२३</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121263.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>१६</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२८७</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>१२१२५४</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२४</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>अपुताली हक कायम</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>इन्द्र कुमारी देवी चौधरीको हकमा हरेन्द्र कुमार चौधरी</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>नारायण प्रसाद थारु</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>२०७२-१२-२३</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121254.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३८८</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>१२१००२</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२४</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>ज्ञान बहादुर बम्जन समेत ४</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>अख्तियार दुरुपयोग अनुसन्धान आयोग समेत ३</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>२०७३-०४-१७</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121002.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३९९</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>१२१०९९</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>अधिवक्ता देवकी पोखरेल समेत ९</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>अर्थ मन्त्रालय समेत ३</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>२०७१-०७-३०</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121099.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३९२</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>१२१०५६</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>तेजनाथ रिमाल समेत ५</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>जि।वि।स।को कार्यालय पर्वत कुश्मा समेत २</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>२०७२-०१-१०</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121056.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>२९</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२९४</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>१२१२८५</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>सुरेन्द्र कुमार लिम्बु</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>नरसिंह बहादुर लिम्बु</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>२०७३-०९-०६</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121285.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>३३</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०७७</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>१२१४००</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>जिउ मास्ने बेच्ने</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>कमल अधिकारी</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>२०७४-०५-२६</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121400.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>०६९-RC-०१२१</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>१२१३२७</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२८</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>रामकुमार रार्इ</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२१</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121327.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>१६</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>०६९-WS-००८६</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>१२११७७</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२८</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>अधिवक्ता जयमंगल प्रसाद</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>सम्माननीय अध्यक्ष, नेपाल सरकार प्रधानमन्त्री तथा मन्त्रीपरिषद कार्यालय समेत १०</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>२०७१-१२-१२</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121177.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/script_for_suprim_court_data/courtdata.xlsx
+++ b/script_for_suprim_court_data/courtdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8288,52 +8288,52 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>१४</t>
+          <t>१६</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>०६९-CI-१२६५</t>
+          <t>०६९-WO-१३८०</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>१२१०६५</t>
+          <t>१२०९४९</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>२०७०-०३-२०</t>
+          <t>२०७०-०३-२१</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>देवानी</t>
+          <t>रिट निवेदन</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>हक कायम</t>
+          <t>उत्प्रेषण</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>मु।स।गर्ने द्धारिका लाल श्रेष्ठ</t>
+          <t>अधिवक्ता श्रीप्रसाद पण्िडत</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>मु।स। गर्ने बाल हरि रावल र लोकरत्न तुलाधर</t>
+          <t>मन्त्रपिरषिदका अध्यक्ष प्रधानमन्त्रि तथा मन्त्रपिरषिदको कार्यालय समेत ५</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>२०७१-०८-१७</t>
+          <t>२०७१-१०-२१</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121065.pdf</t>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_120949.pdf</t>
         </is>
       </c>
     </row>
@@ -8600,282 +8600,282 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>१५</t>
+          <t>२२</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>०६९-CI-१२८८</t>
+          <t>०६९-CR-१०५७</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>१२१२६३</t>
+          <t>१२१०२०</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>२०७०-०३-२४</t>
+          <t>२०७०-०३-२१</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>देवानी</t>
+          <t>फौजदारी</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>निर्णय वदर</t>
+          <t>कर्तव्य ज्यान</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>इन्द्रकुमारी देवी चौधरीको हकमा हरेन्द्र कुमार चौधरी</t>
+          <t>नेपाल सरकार</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>नारायण प्रसाद थारु</t>
+          <t>श्याम बहादुर राना , जंगबहादुर श्रेष्ठ र दलबहादुर भन्ने दिल बहादुर रेश्मी</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>२०७२-१२-२३</t>
+          <t>२०७२-०६-०७</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121263.pdf</t>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121020.pdf</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>१६</t>
+          <t>२३</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>०६९-CI-१२८७</t>
+          <t>०६९-CR-१०५४</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>१२१२५४</t>
+          <t>१२१०१७</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>२०७०-०३-२४</t>
+          <t>२०७०-०३-२१</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>देवानी</t>
+          <t>फौजदारी</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>अपुताली हक कायम</t>
+          <t>जवरजस्ती करणी</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>इन्द्र कुमारी देवी चौधरीको हकमा हरेन्द्र कुमार चौधरी</t>
+          <t>सन्तोष ुसुन्दास दर्जी</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>नारायण प्रसाद थारु</t>
+          <t>नेपाल सरकार</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>२०७२-१२-२३</t>
+          <t>२०७२-०८-२०</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121254.pdf</t>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121017.pdf</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>१८</t>
+          <t>२</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>०६९-WO-१३८८</t>
+          <t>०६९-RC-०११९</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>१२१००२</t>
+          <t>१२१११६</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>२०७०-०३-२४</t>
+          <t>२०७०-०३-२३</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>रिट निवेदन</t>
+          <t>फौजदारी</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>उत्प्रेषण</t>
+          <t>कर्तव्य ज्यान</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>ज्ञान बहादुर बम्जन समेत ४</t>
+          <t>नेपाल सरकार</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>अख्तियार दुरुपयोग अनुसन्धान आयोग समेत ३</t>
+          <t>साम्बा तामाङ</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>२०७३-०४-१७</t>
+          <t>२०७०-११-०९</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121002.pdf</t>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121116.pdf</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>६</t>
+          <t>३</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>०६९-WO-१३९९</t>
+          <t>०६९-CI-१२८०</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>१२१०९९</t>
+          <t>१२११५२</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>२०७०-०३-२५</t>
+          <t>२०७०-०३-२३</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>रिट निवेदन</t>
+          <t>देवानी</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>परमादेश</t>
+          <t>उत्प्रेषण</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>अधिवक्ता देवकी पोखरेल समेत ९</t>
+          <t>राजश्व अनुसन्धान वभिाग हरिहर भवन, पुल्चोक ललितपुरका तर्फबाट ऐ।वभिागका महानिर्देशक खुमराज पुञ्जाली</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>अर्थ मन्त्रालय समेत ३</t>
+          <t>काष्ठमण्डप डेभलपमेन्ट बैंक लिमिटेड काठमाडौं</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>२०७१-०७-३०</t>
+          <t>२०७१-०१-२५</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121099.pdf</t>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121152.pdf</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>१७</t>
+          <t>१४</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>०६९-WO-१३९२</t>
+          <t>०६९-CR-१०६५</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>१२१०५६</t>
+          <t>१२११३७</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>२०७०-०३-२५</t>
+          <t>२०७०-०३-२३</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>रिट निवेदन</t>
+          <t>फौजदारी</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>उत्प्रेषण</t>
+          <t>करकाप</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>तेजनाथ रिमाल समेत ५</t>
+          <t>गगनदेव यादव</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>जि।वि।स।को कार्यालय पर्वत कुश्मा समेत २</t>
+          <t>बद्री नारायण साह</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>२०७२-०१-१०</t>
+          <t>२०७१-०८-०४</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121056.pdf</t>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121137.pdf</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>२९</t>
+          <t>१५</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>०६९-CI-१२९४</t>
+          <t>०६९-CI-१२७८</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>१२१२८५</t>
+          <t>१२१११३</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>२०७०-०३-२५</t>
+          <t>२०७०-०३-२३</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8885,49 +8885,49 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>अन्य</t>
+          <t>लेनदेन</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>सुरेन्द्र कुमार लिम्बु</t>
+          <t>गगनदेव यादव र श्याम सुन्दर यादव</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>नरसिंह बहादुर लिम्बु</t>
+          <t>बद्री नारायण शाह</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>२०७३-०९-०६</t>
+          <t>२०७१-०८-०४</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121285.pdf</t>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121113.pdf</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>३३</t>
+          <t>१४</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>०६९-CR-१०७७</t>
+          <t>०६९-CR-१०७५</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>१२१४००</t>
+          <t>१२१२४८</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>२०७०-०३-२५</t>
+          <t>२०७०-०३-२४</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8937,79 +8937,79 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>जिउ मास्ने बेच्ने</t>
+          <t>जालसाजी</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>नेपाल सरकार</t>
+          <t>र्इन्द्र कुमारी देवी चौधरीको हकमा हरेन्द्र कुमार चौधरी</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>कमल अधिकारी</t>
+          <t>नारायण प्रसाद थारु समेत १२</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>२०७४-०५-२६</t>
+          <t>२०७२-१२-२३</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121400.pdf</t>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121248.pdf</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>१३</t>
+          <t>१५</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>०६९-RC-०१२१</t>
+          <t>०६९-CI-१२८८</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>१२१३२७</t>
+          <t>१२१२६३</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>२०७०-०३-२८</t>
+          <t>२०७०-०३-२४</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>फौजदारी</t>
+          <t>देवानी</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>कर्तव्य ज्यान</t>
+          <t>निर्णय वदर</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>नेपाल सरकार</t>
+          <t>इन्द्रकुमारी देवी चौधरीको हकमा हरेन्द्र कुमार चौधरी</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>रामकुमार रार्इ</t>
+          <t>नारायण प्रसाद थारु</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>२०७०-०५-२१</t>
+          <t>२०७२-१२-२३</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121327.pdf</t>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121263.pdf</t>
         </is>
       </c>
     </row>
@@ -9021,47 +9021,2543 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>०६९-WS-००८६</t>
+          <t>०६९-CI-१२८७</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>१२११७७</t>
+          <t>१२१२५४</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>२०७०-०३-२८</t>
+          <t>२०७०-०३-२४</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>अपुताली हक कायम</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>इन्द्र कुमारी देवी चौधरीको हकमा हरेन्द्र कुमार चौधरी</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>नारायण प्रसाद थारु</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>२०७२-१२-२३</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121254.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३८८</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>१२१००२</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२४</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
           <t>रिट निवेदन</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>उत्प्रेषण</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>अधिवक्ता जयमंगल प्रसाद</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>सम्माननीय अध्यक्ष, नेपाल सरकार प्रधानमन्त्री तथा मन्त्रीपरिषद कार्यालय समेत १०</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>२०७१-१२-१२</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121177.pdf</t>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>ज्ञान बहादुर बम्जन समेत ४</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>अख्तियार दुरुपयोग अनुसन्धान आयोग समेत ३</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>२०७३-०४-१७</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121002.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२८९</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>१२१२६७</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२४</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>कित्ता काट</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>रञ्िजत कोइराला</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>मिश्री खड्का</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>२०७३-११-०३</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121267.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>२०</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०७६</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>१२१३९७</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२४</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>भ्रष्टाचार</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>शम्भु भारती</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>२०७४-०१-१७</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121397.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२९०</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>१२१२७१</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२४</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>निषेधाज्ञा</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>नेपाल दुरसंचार कम्पनी लिमिटेड र ऐ।ऐ।का प्रवन्धक निर्देशकका तर्फबाट अख्तियार प्राप्त अमरनाथ सिंह समेत ५ जना</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>चक्रलाल श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>२०७४-१०-२८</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121271.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>२२</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२८६</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>१२११७४</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२४</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>वकसपत्र</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>माहामती देवी खड्का र महेन्द्र सिंह खड्का</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>मेघराज खड्का</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>२०७५-०३-०८</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121174.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>२३</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३९०</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>१२१००७</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२४</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>मोइनुद्दिन बागवान</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत नेपालगंज समेत ५</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>२०७६-०७-०४</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121007.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>३</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३९६</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>१२१०९४</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>टेम्पल आर्ट एक्सपोजिशनका अ।प्रा।स। नवराज नेपाल</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>लक्ष्मी बैंक लिमिटेड समेत २</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>२०७०-०९-०९</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121094.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३९९</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>१२१०९९</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>अधिवक्ता देवकी पोखरेल समेत ९</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>अर्थ मन्त्रालय समेत ३</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>२०७१-०७-३०</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121099.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३९२</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>१२१०५६</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>तेजनाथ रिमाल समेत ५</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>जि।वि।स।को कार्यालय पर्वत कुश्मा समेत २</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>२०७२-०१-१०</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121056.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>२९</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२९४</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>१२१२८५</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>सुरेन्द्र कुमार लिम्बु</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>नरसिंह बहादुर लिम्बु</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>२०७३-०९-०६</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121285.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>३३</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०७७</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>१२१४००</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>जिउ मास्ने बेच्ने</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>कमल अधिकारी</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>२०७४-०५-२६</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121400.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>३४</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>०६९-WS-००८४</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>१२१०९२</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>रामजीवन साह सोनार समेत ११</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्री तथा मन्त्रीपरिषद कार्यालय समेत ५</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>२०७४-०९-२६</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121092.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>३५</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२९१</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>१२१२७९</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>मु।स। गर्ने रिद्धि थापा घले</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>गंगाराम खड्गी</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>२०७४-११-०६</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121279.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>३६</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२९२</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>१२१२८०</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>विविध</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>मु।स।गर्ने रिद्धि थापा घले</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>गंगाराम खड्गी</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>२०७४-११-०६</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121280.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>३७</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३९८</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>१२१०९८</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>गोपाल रसायली</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>सहरी विकास मन्त्रालय समेत ३</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>२०७४-०९-२६</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121098.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>३८</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>०६९-WO-१३९४</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>१२१०७४</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>विविध</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>अधिवक्ता सुनिल कुमार पटेल समेत २</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>सम्माननीय अन्तरिम चुनावी मन्त्रीपरषदिका अध्यक्ष, प्रधानमन्त्री तथा मन्त्रीपरषदि कार्यालय समेत ४</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>२०७५-०९-०४</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121074.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>३९</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>०६९-RB-००६९</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>१२१२५१</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२५</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>राजस्व र बाणिज्य</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>राजस्व र वाणिज्य</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>राजेन्द्र कुमार थापा</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>मिल बहादुर कायथ्ठ</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>२०७६-०९-१४</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121251.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>३</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>०६९-CI-१२९९</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>१२१३०८</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२६</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>मोही लगत कट्टा</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>गोकर्ण प्रसाद जोशी</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>ढोगे नाउं</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>२०७१-०९-२५</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121308.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>४</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>०६९-CI-१३००</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>१२१३१२</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२६</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>मोही नामसारी</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>गोकर्ण प्रसाद जोशी</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>भुर्रा नाउं</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>२०७१-०९-२५</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121312.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>०६९-WS-००८५</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>१२१११९</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२६</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>अधिवक्ता पूर्णचन्द्र पौडेल</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>निर्वाचन आयोग बहादुर भवन समेत</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>२०७२-०५-१०</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121119.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>०६९-WO-१४०४</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>१२११३५</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२६</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>शरणहरि जोशी समेत ४१</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्रि तथा मन्त्रपिरिषदको कार्यालय समेत १२</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>२०७२-०८-१६</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121135.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>०६९-RC-०१२०</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>१२११५४</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२६</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>रेसम भन्ने सुवास महरा</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>२०७२-१०-०४</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121154.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>०६९-RB-००७०</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>१२१३१६</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२६</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>राजस्व र बाणिज्य</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>राजस्व र वाणिज्य</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>राधाकृष्ण कार्की</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>ऐ।ऐ। को संचालक समिति , जिल्ला विकास समितिको कार्यालय सिन्धुपाल्चोक र ऐ।कार्यालयका स्थानिय विकास अधिकारी</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>२०७३-०५-२३</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121316.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०८०</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>१२१४०६</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२७</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>लागु ‌‌औषधी हिरोइन</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>मान बहादुर खड्का</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>२०७१-०३-०९</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121406.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०८२</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>१२१४०९</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२७</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>नक्कली प्रमाण पत्र</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>रुद्रबहादुर वली</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>२०७२-०६-१९</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121409.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>०६९-WO-१४०६</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>१२११४७</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२७</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>मध्यमाञ्चल बोन र्इन्डष्टि्रजका साझेदार राज कुमार शाह समेत २</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>उद्योग मन्त्रालय सिंहदरवार समेत ४</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>२०७२-०९-१३</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121147.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>२४</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०७९</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>१२१४०४</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२७</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>भ्रष्टाचार</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>ओम विक्रम राणा</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>२०७४-०१-१७</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121404.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>२५</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०८१</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>१२१४०८</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२७</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>बैंकिङ्ग कसुर</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>अच्यूत प्रसाद भट्रार्इ</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>२०७५-१२-१३</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121408.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०८०</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>१२१४०६</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२७</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>लागु ‌‌औषधी हिरोइन</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>मान बहादुर खड्का</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>२०७१-०३-०९</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121406.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०८२</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>१२१४०९</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२७</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>नक्कली प्रमाण पत्र</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>रुद्रबहादुर वली</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>२०७२-०६-१९</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121409.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>०६९-WO-१४०६</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>१२११४७</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२७</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>मध्यमाञ्चल बोन र्इन्डष्टि्रजका साझेदार राज कुमार शाह समेत २</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>उद्योग मन्त्रालय सिंहदरवार समेत ४</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>२०७२-०९-१३</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121147.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>२४</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०७९</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>१२१४०४</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२७</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>भ्रष्टाचार</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>ओम विक्रम राणा</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>२०७४-०१-१७</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121404.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>२५</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०८१</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>१२१४०८</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>२०७०-०३-२७</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>बैंकिङ्ग कसुर</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>अच्यूत प्रसाद भट्रार्इ</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>२०७५-१२-१३</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121408.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>०६९-WO-१४२८</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>१२१२४३</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>नानीराम हुमागार्इ</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>गृह मन्त्रालय सिंहदरवार समेत ५</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>२०७१-०५-०२</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121243.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>०६९-NF-००१४</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>१२१४३०</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>रेशमान तुलाधर समेत ५ जना , मु।स। गर्ने पदमशोभा तुलाधर , मु।स। गर्ने सुमित्रा राजकर्णीकार तुलाधर र सुमन तुलाधर</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>ज्ञानेन्द्ररत्न तुलाधर समेत ५ जना</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>२०७२-०१-१०</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121430.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>०६९-NF-००१५</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>१२१४३५</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>दर्ता फारी</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>मैखु गुरुङ र छोमा गुरुङ</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>ज्ञानेन्द्ररत्न तुलाधर समेत ५ जना</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>२०७२-०१-१०</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121435.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>०६९-NF-००१६</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>१२१४३७</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>दर्ता फारी</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>पूर्णलाल श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>ज्ञानेन्द्ररत्न तुलाधर समेत ५ जना</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>२०७२-०१-१०</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121437.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>०६९-NF-००१९</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>१२१४५०</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>रेशमान तुलाधर समेत ६</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>ज्ञानेन्द्ररत्न तुलाधर समेत ५ जना</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>२०७२-०१-१०</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121450.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>०६९-NF-००१८</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>१२१४४२</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>गुठी धर्मलोप</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>रेशमान तुलाधर , मु।स। गर्ने पद्मशोभा तुलाधर , मु।स। गर्ने सुमित्रा राजकणिकार ढतुलाधरण् र सुमन तुलाधर</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>डा।ज्ञानेन्द्ररत्न तुलाधर</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>२०७२-०१-१०</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121442.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>०६९-NF-००१७</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>१२१४३८</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>रेशमान तुलाधर समेत ५ जना</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>ज्ञानेन्द्ररत्न तुलाधर समेत ५ जना</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>२०७२-०१-१०</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121438.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>०६९-WO-१४२६</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>१२१२३५</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>रातो कुमारी विकास सेवा समितिका अ।प्रा।स।अशोक तण्डुकार समेत ४</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्रि तथा मन्त्रपिरिषदको कार्यालय समेत १०</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>२०७३-०६-०५</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121235.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>१६</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>०६९-CR-१०९१</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>१२१४१८</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>अदालतको अवहेलना</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>नेम इन्स्टीच्युट फर मेडिकल एजुकेशन प्रा।लि।को तर्फबाट अख्तियार प्राप्त संचालक डा।नविन कुमार शर्मा</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>मनोज कुमार सिंह</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>२०७३-१२-२१</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121418.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>०६९-WO-१४२९</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>१२१२४७</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>जागेश्वर शाह</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>लोक सेवा आयोग केन्द्रिय कार्यालय समेत ४</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>२०७४-०२-०१</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121247.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>०६९-WO-१४२७</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>१२१२३९</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>उमा पौडेल समेत ५</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>मन्त्रपिरषिद प्रधानमन्त्र ितथा मन्त्रपिरषिदको कार्यालय समेत ६</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>२०७४-०९-२१</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121239.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>२२</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>०६९-CI-१३०५</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>१२१३३८</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३०</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>रमादेवी ढकाल र आफनो हकमा समेत अच्युतम प्रसाद उपाध्याय ढकाल</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>जानकीदेवी ढकाल , विष्णु कुमार ढकाल र हरिहर कुमार ढकाल</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>२०७६-११-१९</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121338.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>२८</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>०६९-CI-१३०८</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>१२१४५८</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३१</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>लेनदेन</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>टिका बहादुर वली</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>धनिराम खड्का</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>२०७०-११-२०</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121458.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>३२</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>०६९-WO-१४३४</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>१२१३३७</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३१</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>लक्ष्मी इन्टरकन्टिनेन्टल प्रा।ली</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>भौतिक पूर्वाधार तथा यातायात व्यवस्था मन्त्रालय सिंहदरवार समेत</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>२०७१-१०-११</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121337.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>३७</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>०६९-WO-१४३३</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>१२१३२९</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>२०७०-०३-३१</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>हरि बहादुर रोकाया</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्रि तथा मन्त्रपिरिषदको कार्यालय समेत ८</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>२०७४-१२-०६</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121329.pdf</t>
         </is>
       </c>
     </row>

--- a/script_for_suprim_court_data/courtdata.xlsx
+++ b/script_for_suprim_court_data/courtdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J214"/>
+  <dimension ref="A1:J375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11561,6 +11561,8378 @@
         </is>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>२७</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>०७०-CI-०००२</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>१२१४९०</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०१</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>निषेधाज्ञा</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>दिलिपराज कायस्थ</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>काठमाडौं भक्तपुर सडक विस्तार योजना, थापाथली काठमाडौं समेत ७</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>२०७२-०५-०८</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121490.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>२९</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>०७०-CI-०००१</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>१२१४८९</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०१</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>मोही नामसारी</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>केदार बहादुर थापा</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>रामगोपाल महर्जन</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>२०७३-०३-२४</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121489.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>१</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>०७०-CI-०००६</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>१२१४९७</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०२</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>पद्म न्यौपाने</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>आरती न्यौपाने , दीपक न्यौपाने र मु।स।गर्ने दिपा लोहनी न्यौपाने</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>२०७१-०४-२८</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121497.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>०७०-CI-०००५</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>१२१४९६</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०२</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>बहाल</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>नानी बाबु श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>पूर्णभक्त प्रधानाङ</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>२०७४-०४-२३</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121496.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>०७०-CI-०००३</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>१२१४९१</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०२</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>प्रल्हादमान सिंह बस्न्यात</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>आइस्था भन्ने योगिना बस्न्यातको संरक्षक अनिता बस्न्यात</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>२०७५-०६-१०</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121491.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>०७०-CI-०००४</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>१२१४९५</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०२</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>प्रल्हादमान सिंह बस्न्यात</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>आइस्था भन्ने योगिना बस्न्यातको हकमा संरक्षक भई अनिता बस्न्यात</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>२०७५-०६-१०</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121495.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>१</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>०७०-CI-००१३</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>१२१५७३</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०४</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>लाल देव यादव</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>जिल्ला प्रहरी कार्यालय, सप्तरी र जिल्ला प्रहरी र्कायालय सप्तरीको र्कायालय प्रमुख</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>२०७०-११-१९</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121573.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>२</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>०७०-CI-००२९</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>१२१६१६</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०४</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>जिल्ला धनुषा गा।वि।स। कार्यालय धवौलीको हकमा र आफनो हकमा समेत ऐ।ऐ।का सचिव रामचन्द्र यादव र ऐ।ऐ। गा।वि।स। कार्यालयको सहायक सत्य नारायण मण्डल</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>बलराम बहादुर प्रधानांग</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>२०७०-१०-०६</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121616.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>०७०-CI-००५१</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>१२१७३४</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०७</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>माया कुमारी गुरुङ</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>जसबहादुर गुरुङ र स्थुली भन्ने देउकुमारी गुरुङ</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>२०७१-०८-०५</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121734.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>०७०-CR-००२२</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>१२१७११</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०७</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>पर्शुराम मण्डल धानुक</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>२०७१-१२-०४</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121711.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>०७०-CI-००५१</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>१२१७३४</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०७</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>माया कुमारी गुरुङ</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>जसबहादुर गुरुङ र स्थुली भन्ने देउकुमारी गुरुङ</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>२०७१-०८-०५</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121734.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>०७०-CR-००२२</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>१२१७११</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०७</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>पर्शुराम मण्डल धानुक</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>२०७१-१२-०४</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121711.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>०७०-CI-००५१</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>१२१७३४</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०७</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>माया कुमारी गुरुङ</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>जसबहादुर गुरुङ र स्थुली भन्ने देउकुमारी गुरुङ</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>२०७१-०८-०५</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121734.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>०७०-CR-००२२</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>१२१७११</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>२०७०-०४-०७</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>पर्शुराम मण्डल धानुक</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>२०७१-१२-०४</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121711.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>१</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>०७०-WO-००३६</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>१२१७७०</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१०</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>प्रतिषेध</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>भिम प्रसाद चापागार्इ</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>जिल्ला प्रशासन कार्यालय, स्याङ्जा समेत २</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>२०७०-०९-१८</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121770.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>२</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>०७०-WO-००३८</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>१२१७९९</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१०</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>सन्तोष कुमार पोखरेल</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>पोखरा बिश्वविद्यालय, कास्की समेत ६</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>२०७१-०७-१८</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121799.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>०७०-WO-००४१</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>१२१८३२</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>२०७०-०४-११</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>गिरिजा प्रसाद पाठक समेत ५</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>सहरी विकास मन्त्रालय सिंहदरवार समेत ८</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>२०७०-०८-१६</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121832.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>०७०-WS-०००४</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>१२१८३०</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>२०७०-०४-११</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>अरुण मेडिकल सेन्टर प्रा।ली।का अ।प्रा।शमशेर नेपाली</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>मन्त्रपिरषिद प्रधानमन्त्र ितथा मन्त्रपिरषिदको कार्यालय समेत ५</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>२०७१-०५-१२</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121830.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>५</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>०७०-WO-००४४</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>१२१८८२</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१३</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>पुरन बहादुर ऐर</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>बैदेशिक रोजगार न्यायाधिकरण, काठमाण्डौं</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>२०७१-०७-१४</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121882.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>०७०-CI-००७१</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>१२१९९१</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१४</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>भगवती देवी उप्रेती</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>अन्नपूर्ण उप्रेती</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>२०७२-०५-१६</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121991.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>०७०-CI-००७१</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>१२१९९१</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१४</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>भगवती देवी उप्रेती</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>अन्नपूर्ण उप्रेती</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>२०७२-०५-१६</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121991.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>०७०-CI-००७९</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>१२२०६६</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१६</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>म।स।गर्ने दिपा लोहनी न्यौपाने</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>पदम न्यौपाने</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>२०७१-०४-२८</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122066.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>०७०-CR-००८५</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>१२२०६१</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१६</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>नक्कली प्रमाण पत्र</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>लक्ष्मी पाण्डे</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>२०७२-०५-१०</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122061.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>०७०-MS-०००३</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>१२२०५९</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१६</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>अदालतको अवहेलना</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>साहिला लामा तामाङ समेत ५ जना</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>खानी तथा भू र्गभ विभाग, कपुरधारा मार्ग लैनचौर महानिर्देशक सर्वजित प्रसाद महतो , श्री जिल्ला वकिास समितकिो कार्यालय, धुलिखेल काभ्रेपलाञ्चोकका तत्कालनि सथानीय वकिास अधिकारी मेघनाथ काफले , रोडा ढुंगा सप्लायर्स प्रा।लि।को प्रोपाइटर तथा संचालक निरोज कुमार थपलयिा र ऐ।ऐ।का सञ्चालक समिति अध्यक्ष आङपुरी शेर्पा</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>२०७३-०५-०६</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122059.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>०७०-WO-००७०</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>१२१९९८</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१६</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>देव एण्ड कन्ष्ट्क्सन प्रा।लि। का अ।प्रा। डम्वर सिंह गदाल</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>जिल्ला विकास समितिको कार्यालय, इलाम समेत ३</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>२०७३-०७-२२</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121998.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>०७०-CI-००८०</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>१२२०६९</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१६</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>गितादेवी तिवारी</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>रामचन्द्र तिवारी</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>२०७४-०९-२१</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122069.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>२०</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>०७०-WO-००६७</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>१२१९९३</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१६</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>गगन सिंह नेगी</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत महेन्द्रनगर समेत ६</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>२०७५-०२-०८</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_121993.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>०७०-CI-००८१</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>१२२०७०</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१६</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>विनोद कुमार मण्डल</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>हरिदेव यादव</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>२०७५-०७-११</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122070.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>०७०-WO-००७५</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>१२२०३०</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>अधिवक्ता दिपक विक्रम मिश्र</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्री तथा मन्त्रीपरिषद कार्यालय, सिंहदरवार समेत ३५</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>२०७०-०९-१६</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122030.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>०७०-CI-००८८</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>१२२१२०</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>दिपक न्यौपाने र आरती न्यौपाने</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>पदम न्यौपाने</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>२०७१-०४-२८</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122120.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>०७०-WO-००७७</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>१२२०३८</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>फिनमाया गुरुङ</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>काठमाण्डौ जिल्ला अदालत, बबरमहल समेत १०</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>२०७१-०७-१४</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122038.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>०७०-WO-००७८</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>१२२०६०</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>सरिता गुरुङ</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>काठमाण्डौ जिल्ला अदालत बबरमहल समेत ५</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>२०७१-०७-१४</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122060.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>०७०-WO-००७६</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>१२२०३७</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>चिरन्जीवी कोइराला</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>गृह मन्त्रालय सिंहदरवार समेत ६</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>२०७३-०२-०३</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122037.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>०७०-CI-००८७</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>१२२११३</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>मोही नामसारी</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>मु।स। गर्ने मुकसुद मियां</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>राजिन्द्रर राउत कुर्मि</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>२०७३-१०-१४</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122113.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>०७०-WO-००७४</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>१२२०२३</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>भगौती प्रसाद अहिर यादव</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>भूमिसुुधार कार्यालय, बर्दिया समेत ३</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>२०७४-०२-२८</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122023.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>०७०-CR-००८७</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>१२२१०९</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>किर्ते जालसांजी</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>लछु दास वैरागी</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>छठिया देवी र विगुराय यादव</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>२०७५-११-२१</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122109.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>०७०-CI-००८४</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>१२२१०२</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>मिलापत्र</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>लछु दास बैरागी</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>छठिया देवी</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>२०७५-११-२१</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122102.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>०७०-CI-००८६</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>१२२१०८</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>मोही नामसारी</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>दयाराम प्रजापति</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>सिद्धिराम प्रजापती</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>२०७६-०३-१८</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122108.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>०७०-WO-००७५</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>१२२०३०</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>अधिवक्ता दिपक विक्रम मिश्र</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्री तथा मन्त्रीपरिषद कार्यालय, सिंहदरवार समेत ३५</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>२०७०-०९-१६</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122030.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>०७०-CI-००८८</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>१२२१२०</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>दिपक न्यौपाने र आरती न्यौपाने</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>पदम न्यौपाने</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>२०७१-०४-२८</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122120.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>०७०-WO-००७७</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>१२२०३८</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>फिनमाया गुरुङ</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>काठमाण्डौ जिल्ला अदालत, बबरमहल समेत १०</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>२०७१-०७-१४</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122038.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>०७०-WO-००७८</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>१२२०६०</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>सरिता गुरुङ</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>काठमाण्डौ जिल्ला अदालत बबरमहल समेत ५</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>२०७१-०७-१४</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122060.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>०७०-WO-००७६</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>१२२०३७</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>चिरन्जीवी कोइराला</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>गृह मन्त्रालय सिंहदरवार समेत ६</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>२०७३-०२-०३</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122037.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>०७०-CI-००८७</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>१२२११३</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>मोही नामसारी</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>मु।स। गर्ने मुकसुद मियां</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>राजिन्द्रर राउत कुर्मि</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>२०७३-१०-१४</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122113.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>०७०-WO-००७४</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>१२२०२३</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>भगौती प्रसाद अहिर यादव</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>भूमिसुुधार कार्यालय, बर्दिया समेत ३</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>२०७४-०२-२८</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122023.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>०७०-CR-००८७</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>१२२१०९</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>किर्ते जालसांजी</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>लछु दास वैरागी</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>छठिया देवी र विगुराय यादव</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>२०७५-११-२१</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122109.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>०७०-CI-००८४</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>१२२१०२</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>मिलापत्र</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>लछु दास बैरागी</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>छठिया देवी</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>२०७५-११-२१</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122102.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>०७०-CI-००८६</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>१२२१०८</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>२०७०-०४-१७</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>मोही नामसारी</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>दयाराम प्रजापति</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>सिद्धिराम प्रजापती</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>२०७६-०३-१८</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122108.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>१</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>०७०-WO-००९५</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>१२२१९७</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२१</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>विनोद कुमार उपाध्याय</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>सामान्य प्रशासन मन्त्रालय, सिंहदरवार समेत ३</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>२०७०-११-२०</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122197.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>२</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>०७०-WO-००९७</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>१२२२०१</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२१</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>रामदेव मण्डल</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>रौतहट गा।वि।स।को कार्यालय सप्तरी समेत ५</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२४</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122201.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>०७०-WS-०००७</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>१२२२०६</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२१</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>बद्री कुमार खत्रि</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>पुनराबेदन अदालत पाटन</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>२०७१-११-२८</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122206.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>२२</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>०७०-MS-०००४</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>१२२३१२</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२३</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>अदालतको अवहेलना</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>सन्तोष कुमार पोखरेल</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>खगेन्द्र प्रसाद भट्टरार्इ उपकुलपाति पोखरा बिश्वविद्यालय , मान बहादुर के।सी। रजिष्टरार ऐ।ऐ। र सुरेश प्रसाद वास्तोला,डीन विज्ञान तथा प्रविधि संकाय ऐ।ऐ।</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>२०७१-०७-१८</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122312.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>२३</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१४६</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>१२२३८७</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२३</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>फैसला वदर</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>राष्टिरय वाणिज्य वैंक मुख्य शाखा कार्याल काठमाडौंको तर्फबाट अख्तियार प्राप्त विष्णु प्रसाद वैद्य</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>लाल प्रसाद श्रेष्ठ र सिक्किनमान थैव</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>२०७१-०९-२८</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122387.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>२४</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१४७</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>१२२३९०</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२३</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>फैसला वदर</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>राष्टिरय वाणिज्य बैंक मुख्य शाखा कार्यालय काठमाडौंको तर्फबाट अख्तियार प्राप्त विष्णु प्रसाद वैद्य</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>लाल प्रसाद श्रेष्ठ समेत ५ जना</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>२०७१-०९-२८</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122390.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>०७०-MS-०००५</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>१२२५२३</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२४</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>गैडा मारी खाग बिक्री</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>प्रकाश बुढा</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>२०७१-०४-१८</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122523.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>०७०-CR-०१२२</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>१२२४२७</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२४</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>अन्य चोरी</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>अजय कुमार यादव</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>२०७१-०५-०९</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122427.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>०७०-CR-०१२४</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>१२२४३५</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२४</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>सवारी ज्यान</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>कुशल सिटौला</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>२०७१-१२-२२</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122435.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>०७०-CR-०१२९</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>१२२४५७</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२४</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>सार्वजनिक अपराध</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>प्रनिस राई</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>२०७२-०२-१४</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122457.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>०७०-CR-०१४३</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>१२२४९४</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२४</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>नकवजनी चोरी</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>होम भन्ने आकाश श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>२०७२-०४-२५</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122494.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१११</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>१२२३९६</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२७</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>बगरखोला हार्इड्रोपावर प्रा।ली।का अ।प्रा।स।प्रदिप सापकोटा</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>उर्जा मन्त्रालय समेत २</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>२०७०-०७-११</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122396.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१६०</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>१२२६३७</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२७</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>बहाल</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>नेपाल रेडक्रस सोसार्इटी,जिल्ला शाखा, सप्तरी राजविराज र ऐ।ऐ का जिल्ला सभापति</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>तत्कालीन सगरमाथा अंचल अस्पताल विकास समितिका सदस्य सचिव एवं अस्पतालका प्रमुख डा। सत्यदेव गिरी</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>२०७१-०३-२४</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122637.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>२४</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१७१</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>१२२७४५</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२९</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>वण्डापत्र वदर</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>तेज नारायण सिंह र राजकुमारी देवी</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>मु।स।गर्ने राजेश कुमार सिंह</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>२०७१-०९-२५</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122745.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>२६</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>०७०-CR-०१९७</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>१२२७३८</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२९</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>नक्कली प्रमाण पत्र</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>पीताम्बर प्रसाद काफ्ले</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>२०७२-०५-०३</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122738.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>२८</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>०७०-CR-०१९९</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>१२२७५६</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२९</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>सन्तबहादुर तामाङ</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>२०७२-१२-२९</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122756.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>३०</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१२१</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>१२२४८८</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>२०७०-०४-२९</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>रामबाबु दाहाल</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत विराटनगर समेत ३</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>२०७३-०६-३०</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122488.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>५</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१२६</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>१२२५३१</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>२०७०-०४-३०</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>श्याम बहादुर थापा</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>शिक्षा मन्त्रालय सिंहदरवार समेत ३</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०३</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122531.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१७५</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>१२२७६१</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>२०७०-०४-३०</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>तुल्सी राम वैद्य र कृष्ण प्रसाद वैद्य</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>तुल्सीराम हन्जु सुवाल , भक्तपुर नगरपालिकाका कार्यकारी अधिकृत माधव प्रसाद गडतौला , भक्तपुर नगरपालिका कार्यालय र भक्तपुर नगरपालिका १५ नं। वडा कार्यालय</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>२०७०-१०-०६</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122761.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२०१</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>१२२७८६</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>२०७०-०४-३०</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>अदालतको अवहेलना</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>कृष्ण प्रसाद वैद्य</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>तुल्सीराम हन्जु सुवाल</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>२०७०-१०-०६</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122786.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१२४</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>१२२५०९</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>२०७०-०४-३०</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>डा।रुद् सुवाल समेत १२</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्री तथा मन्त्रीपरिषद कार्यालय समेत ६</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>२०७१-०९-०१</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122509.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१७७</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>१२२७६८</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>२०७०-०४-३०</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>वण्डापत्र वदर</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>सुरेश प्रसाद सिंह र मु।स। गर्ने अंजनी कुमार सिंह</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>मु।स।गर्ने राजेश कुमार सिंह</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>२०७१-०९-२५</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122768.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>१६</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१२८</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>१२२५४१</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>२०७०-०४-३०</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>भिष्म प्रसाद जोशी</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>त्रिभुवन बिश्वविद्यालय केन्द्रिय कार्यालय किर्तिपुर समेत ७</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>२०७१-११-०८</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122541.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>१</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१५०</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>१२२७८२</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०२</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>चुरे भावर लोकतान्त्रिक पार्टीका अ।प्रा।स।भूमिराज निरौला</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>निर्वाचन आयोग बहादुर भवन काठमाण्डौ समेत ६</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>२०७१-०२-२७</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122782.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>२</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१८९</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>१२२८१५</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०२</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>गोवर्धनलाल नकर्मी</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>संरक्षक कमला नकर्मी</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>२०७०-११-२८</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122815.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>३</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१९०</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>१२२८१७</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०२</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>मानाचामल</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>गोवर्धनलाल नकर्मी</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>संरक्षक कमला नकर्मी</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>२०७०-११-२८</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122817.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>४</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२०७</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>१२२८०२</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०२</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>सम्बन्धविच्छेद</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>मुकुन्द लाल नकर्मी , राधा नकर्मी र गोवर्धनलाल नकर्मी</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>कमला नकर्मी</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>२०७०-११-२८</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122802.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१८७</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>१२२८११</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०२</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>नामसारी</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>देवेन्द्र श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>कृष्ण माया चक्रधर</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>२०७१-०९-२५</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122811.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१८८</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>१२२८१३</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०२</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>नामसारी</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>राम चक्रधर</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>कृष्ण माया चक्रधर</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>२०७१-०९-२५</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122813.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>०७०-MS-०००७</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>१२२७९३</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०२</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>विविध</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>निरोज पाण्डे</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>पूर्वाअञ्चल बिश्वविद्यालयका अध्यक्ष तथा उपकुलपति प्रा।महेश्वरमान श्रेष्ठ र पर्ूवाञ्चल वश्विवद्यालिय, कला कानून र शिक्षा शास्त्र संकायका डनि तथा गैर कानूनी रुपमा पर्ूवाञ्चल वश्विवद्यालियको निमित्त रजिष्टरार डा। शम्भु प्रसाद कोइराला</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>२०७२-१२-२३</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122793.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१४९</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>१२२७४७</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०२</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>लीला बहादुर राइ</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>अख्तियार दुरुपयोग अनुसन्धान आयोग टंगाल समेत २</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>२०७३-१०-०५</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122747.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>१</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>०७०-WH-०००४</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>१२२८२०</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०३</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>बन्दीप्रत्यक्षीकरण</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>शिवहरी कार्की</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत पाटन समेत ४</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>२०७०-०६-०६</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122820.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>२</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१५७</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>१२२८२३</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०३</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>जितेन्द्र सिंह</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्रि तथा मन्त्रपिरिषदको कार्यालय समेत ४</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>२०७०-०९-०७</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122823.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१५४</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>१२२८१८</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०३</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>शुशिला कुमारी दवाडी सुवेदी समेत ७</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>संघिय मामिला तथा स्थानीय विकास मन्त्रालय समेत ९</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>२०७२-०३-२९</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122818.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१९१</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>१२२८२७</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०३</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>कृष्ण बहादुर खड्का</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>सन्तोषी माया थापा</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>२०७३-०२-१२</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122827.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>०७०-NF-०००१</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>१२२८३०</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०३</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>स्वस्ितक पुटवेयर इण्डष्टिरज प्रोपराइटरसपि फर्मको प्रो।जि। रिपिन अग्रवाल</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार, अर्थ मन्त्रालय अन्तर्गतको भन्सार विभाग, त्रिपुरेश्वर काठमाडौं र नेपाल सरकार, वरिाटनगर भन्सार कार्यालय वरिाटनगर</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>२०७३-०९-२८</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122830.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>२२</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१५३</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>१२२८१६</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०३</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>मधु बहादुर थापा</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>भुमिसुधार कार्यालय ललितपुर समेत ४</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>२०७३-११-२२</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122816.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>२३</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१५६</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>१२२८२२</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०३</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>असरफ अलि अन्सारी</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>बिशेष अदालत काठमाडौ समेत</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>२०७६-१०-२७</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122822.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१९२</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>१२२८८२</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०४</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>नेपाल साहित्य प्रकाशन केन्द्रका प्रोपार्इटर मोहन कुमार उपाध्याय</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>आन्तरिक राजश्व कार्यालय, काठमाडौं क्षेत्र नं। १ बबरमहल , आन्तरिक राजश्व विभाग, लाजिम्पाट, काठमाडौं र ऐ।का महानिर्देशक</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>२०७१-११-११</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122882.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>४</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१५८</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>१२२८६७</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०७</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>सुरज मण्डल</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत राजविराज समेत ३</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>२०७०-०९-०७</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122867.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२१८</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>१२२८८६</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०७</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>ठगी</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>चित्र बहादुर जि।सी।</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>२०७२-१२-२२</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122886.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१९९</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>१२२९०३</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०७</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>लेनदेन</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>चित्र बहादुर जि।सी।</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>तनासरा वि।क।</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>२०७२-१२-२२</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122903.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>१६</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२००</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>१२२९०४</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०७</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>नेपाल मेडिकल काउन्सिलका अध्यक्ष डा। दामोदर गजुरेल र नेपाल मेडिकल काउन्सिल वासवारीका रजिष्ट्रार डा। नीलमणि उपाध्याय</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>चाहाना श्रेष्ठ समेत १७</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>२०७४-०६-२६</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122904.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२०१</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>१२२९०६</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०७</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>नेपाल मेडिकल काउन्सिलका अध्यक्ष दामोदर गजुरेल र नेपाल मेडिकल काउन्सिल बासवारीका रजिष्टरार डा।नीलमणि उपाध्याय</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>कुमार रोशन झा</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>२०७४-०६-२६</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122906.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२०२</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>१२२९०८</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०७</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>निषेधाज्ञा</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>सौरवी साह कलवार , रामभजन राय भन्ने राम भजन प्रसाद यादव र मो।सफिक अन्सारी</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>तैयब मोहमद मियां</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>२०७९-०३-१७</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122908.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१९६</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>१२२८९८</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०७</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>हरिशंकर साह र ममता कुमारी साह</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>सुदमा देवी कहवारीन , ओम प्रकाश साह र प्रेमलाल साह कलवार</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>२०७९-०६-३०</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122898.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>२०</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१९८</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>१२२९०२</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०७</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>ममता कुमारी साह</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>ओम प्रकाश साह , प्रेमलाल साह कलवार र सुदामा देवी कलवारी</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>२०७९-०६-३०</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122902.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>२१</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>०७०-CI-०१९७</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>१२२९०१</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०७</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>मन्जु देवी साह</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>सुदामा देवी कलवारी , ओम प्रकाश साह र प्रेमलाल साह कलवार</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>२०७९-०६-३०</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122901.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>२</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१६२</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>१२२८९९</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०९</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>विद्यानन्द झा</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>शिक्षा मन्त्रालय सिंहदरवार समेत ३</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>२०७१-०३-३२</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122899.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>४</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१५९</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>१२२८८८</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०९</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>तेतरी देवी महतो कोइरी समेत ३</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत जनकपुर समेत ४</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>२०७२-०१-१०</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122888.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>५</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२३६</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>१२२९५८</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०९</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>वीर बहादुर तामाङ , कृष्ण तामाङ , कप्तान तामाङ र लाक्पा तामाङ</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>२०७२-०४-२९</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122958.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>०७०-RB-००१२</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>१२२९५०</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०९</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>राजस्व र बाणिज्य</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>राजश्व अन्य</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>काले लामा समेत ७ जना</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>२०७२-०४-२०</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122950.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>०७०-MS-०००९</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>१२२९४८</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०९</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>अदालतको अवहेलना</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>भुतहि तेलीन</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>जादोलाल साह तेली र जमुना साह तेली</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>२०७२-०४-१८</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122948.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२३७</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>१२२९६१</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०९</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>भ्रष्टाचार</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>पूर्वाञ्चल बिश्वविद्यालय चिकित्साशास्त्र संकायका डिन प्रा।डा। राम कुमार सिंह , पूर्वाञ्चल बिश्वविद्यालय चिकित्साशास्त्र संकायका सह प्रध्यापक डा। मुत्तिनाथ भट्रार्इ र पूर्वाञ्चल बिश्वविद्यालय चिकित्साशास्त्र संकायका शिक्षण सहायक नवनि भट्टरार्इ</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>२०७२-०६-१७</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122961.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२१९</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>१२२८८७</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>२०७०-०५-०९</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>नक्कली प्रमाण पत्र</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>हरिप्रसाद दमासे</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>२०७२-०६-१८</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122887.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>३</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>०७०-NF-०००९</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>१२३०४२</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१०</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>बहाल</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>समिट होटल प्रा।लि।को तर्फबाट अख्तियार प्राप्त संचालक अमृतरत्न शाक्य</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>शारदा प्रसार्इ</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>२०७१-०४-०८</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123042.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>४</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>०७०-NF-०००७</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>१२२९९२</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१०</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>अशं चलन</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>सुन्दरी कुमारी श्रेष्ठ समेत ५ जना</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>राज कुमार श्रेष्ठ समेत ८</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>२०७१-०५-०५</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122992.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>५</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>०७०-NF-०००३</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>१२२९७८</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१०</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>नेपाल विद्युत प्राधिकरण केन्द्रिय कार्यालय दरवारर्माग, काठमाडौं र ऐ।ऐ।का सञ्चालक समितिका तर्फबाट अख्तियार प्राप्त ऐ।का। कार्यकारी निर्देशक दीपेन्द्र नाथ शर्मा</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>मोरङ व्यापार संघको तर्फबाट अख्तियार प्राप्त ऐ।का सञ्चालक अध्यक्ष महेश जाजु</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>२०७२-१०-२१</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122978.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>०७०-NF-०००४</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>१२२९८३</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१०</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>विविध</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>नेपाल विद्युत प्राधिकरण केन्द्रिय कार्यालय दरवारर्माग र ऐ।का सञ्चालक समिति समेतको तर्फबाट अख्तियार प्राप्त दीपेन्द्र नाथ शर्मा</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>मैनावति स्िटल इन्डष्टिरज प्रा।लि।को तर्फबाट अख्तियार प्राप्त ऐ।का संञ्चालक त्रिलोचन अग्रवाल</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>२०७२-१०-२१</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122983.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१६७</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>१२२९४९</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१०</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>भरत बहादुर थापा</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>जिल्ला प्रशासन कार्यालय सर्लाही समेत १७</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>२०७३-०७-२९</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122949.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>०७०-NF-०००२</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>१२२९७७</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१०</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>कपिल बहादुर चित्रकार</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>श्री कुष्ण रंजितकार</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>२०७३-०६-०६</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122977.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२४५</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>१२३००७</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१०</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>वैदेशिक रोजगार</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>सानुमैया श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>२०७३-०७-१०</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123007.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>०७०-NF-०००६</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>१२२९९१</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१०</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>अपुताली हक कायम</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>गुलजरीया ेदेवी यादवनी</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>मु।स। गर्ने गुन्जेश्वरी यादव</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>२०७३-०९-०७</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122991.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१६४</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>१२२९२६</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१०</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>लिला कान्त घिमिरे</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>शिक्षा मन्त्रालय सिंहदरवार समेत ४</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>२०७३-१२-२९</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122926.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>६</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>०७०-NF-०००५</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>१२२९८८</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>२०७०-०५-११</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>समिट होटल प्रा।लि।को तर्फबाट अख्तियार प्राप्त सञ्चालक अमृतरत्न शाक्य</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>सारदा प्रसार्इ र शिखर प्रसार्इ</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>२०७१-०४-०८</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_122988.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१७०</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>१२३००४</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>२०७०-०५-११</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>दि।ओरियण्टल इन्स्योरेन्स कम्पनि लि।का अ।प्रा।डा।अजय गर्ग</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>श्रम अदालत समेत २</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>२०७१-११-१९</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123004.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२५०</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>१२३०२८</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>२०७०-०५-११</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>प्रेमजंग केरुङ</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>२०७२-०४-२९</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123028.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१७३</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>१२३०२४</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१३</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>धन बहादुर गुरुङ समेत ३</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्रि तथा मन्त्रपिरिषद कार्यालय समेत १०</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>२०७२-०८-१६</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123024.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२१४</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>१२३०४८</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१३</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>अश दपोट</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>कमलराज भट्ट</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>रत्न प्रसाद भट्ट , कमल प्रसाद भट्ट र दिल प्रसाद भट्ट</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>२०७४-०८-२७</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123048.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>११</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२१६</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>१२३०५७</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१३</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>कमलराज भट्ट</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>बसन्त बहादुर शाक्य समेत ८</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>२०७४-०८-२७</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123057.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२१७</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>१२३०६१</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१३</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>कमलराज भट्ट</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>इन्दिरामाया श्रेष्ठ र नारायणदास श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>२०७४-०८-२७</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123061.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२२२</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>१२३०७६</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१३</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>कमलराज भटृ</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>कृष्ण बहादुर थापा र रत्न प्रसाद भट्ट</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>२०७४-०८-२७</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123076.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२१९</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>१२३०६४</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१३</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>कमलराज भटृ</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>पार्वती पुन , दलसि फाल मगर र भिम बहादुर फाल मगर</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>२०७४-०८-२७</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123064.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२२०</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>१२३०७४</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१३</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>कमलराज भटृ</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>नारायण दास श्रेष्ठ , दलसिंह फाल मगर र भिम बहादुर फाल मगर</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>२०७४-०८-२७</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123074.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>१६</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२२१</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>१२३०७५</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१३</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>कमलराज भटृ</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>कृष्ण बहादुर थापा , बसन्त बहादुर शाक्य र कर्ण बहादुर शाक्य</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>२०७४-०८-२७</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123075.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२१८</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>१२३०६३</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१३</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>कमलराज भट्ट</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>काठमाडौं जिल्ला बुढानलिकण्ठ स्थित होटल पार्क भिलेज प्रा।लि। र कर्ण बहादुर शाक्य</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>२०७४-०८-२७</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123063.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२५५</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>१२३०७३</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१३</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>कीर्ते</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>सियालाल साह सोनार र रामप्रेम साह सोनार</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>राजेश्वर देवी अहिरिन</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>२०७६-०७-२६</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123073.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>१९</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२१३</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>१२३०४४</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१३</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>लिखत वदर</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>सियालाल साह सोनार र रामप्रेम साह सोनार</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>राजेश्वर देवी अहिरिन</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>२०७६-०७-२६</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123044.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१७५</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>१२३०६९</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१४</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>चिकित्सा विज्ञान राष्टि्य प्रतिष्ठान वीर अस्पतालका अ।प्रा।स। डा। दामोदर प्रसाद पोखरेल</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्री तथा मन्त्रीपरिषद कार्यालय सिंहदरवार समेत २</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>२०७२-१०-०५</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123069.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१७७</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>१२३०८७</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१६</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>अधिबक्ता रामराज शिवाकोटी शिवाकोटी</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>प्रधानमन्त्री तथा मन्त्रीपरिषदको कार्यालय सिंहदरवार समेत १०</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>२०७१-११-०६</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123087.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१७६</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>१२३०७७</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१६</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>रुवैदा खातुन</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत राजविराज समेत ४</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>२०७२-०९-२३</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123077.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२२३</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>१२३१२८</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१६</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>घर भत्काई</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>भागरती देवी खुलबटिन</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>देव कुमारी थापा</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>२०७३-०७-२३</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123128.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२२५</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>१२३१३०</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१६</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>मोही निस्काशन</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>भागरती देवी खुलबटिन</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>देव कुमारी थापा</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>२०७३-०७-२३</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123130.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२२४</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>१२३१२९</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१६</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>घर भत्काई</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>भागरति देवी खुलवटिन</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>देव कुमारी थापा</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>२०७३-०७-२३</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123129.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२५६</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>१२३१२१</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१६</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>लागु ‌‌औषधी हिरोइन</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>कमलेश प्रसाद बर्मा, कोहार</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>२०७६-११-२३</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123121.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>१</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>०७०-WH-०००७</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>१२३१२०</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१७</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>बन्दीप्रत्यक्षीकरण</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>सागर पराजुलीका हकमा शालिग्राम पराजुली</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत पोखरा समेत ३</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>२०७०-०८-०७</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123120.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>३</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१८१</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>१२३११९</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१७</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>श्रीम् उष्मा(गौरी(पार्वती(सावन इलेक्ट्ीकल्स( जेभी उपक्रम का अ।प्रा। राजेन्द्र कुमार मिश्र</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>नेपाल विद्युत प्राधिकरण केन्द्रिय कार्यालय समेत ५</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१८</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123119.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१८०</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>१२३१००</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१७</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>रामनारायण साह कानू समेत २</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत हेटौडा समेत ५</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१८</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123100.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१७९</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>१२३०९९</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१७</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>लिला देवी</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत हेटौडा समेत ५ , पुनरावेदन अदालत धनकुटा समेत ११ र पुनरावेदन अदालत महेन्द्रनगर समेत ७</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>२०७२-१२-०४</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123099.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>२४</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२२६</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>१२३१३२</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१७</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>निषेधाज्ञा</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>मीनु श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>अख्तियार दुरुपयोग अनुसन्धान आयोग टंगाल काठमाडौं समेत ५</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>२०७५-१०-१४</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123132.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>२५</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२५७</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>१२३१२२</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१७</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>भ्रष्टाचार</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>तारणी प्रसाद सरदार</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>२०७६-०१-११</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123122.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>२६</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२५८</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>१२३१२६</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१७</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>भ्रष्टाचार</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>धिरेन्द्र नापित</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>२०७९-०२-०५</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123126.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>४</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२२७</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>१२३१४८</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१८</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>निषेधाज्ञा</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>महानगरीय टाफिक प्रहरी कार्यालय, गौशाला काठमाडौंको तर्फबाट ऐ।ऐ।का प्रमुख प्रहरी निरिक्षक दिलिप राज झा</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>नरेश डंगोल</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>२०७१-११-०४</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123148.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१८७</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>१२३१४५</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१८</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>बलराम यादव</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>पुनरावेदन अदालत राजविराज समेत ६</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>२०७१-१२-१५</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123145.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>८</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२३१</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>१२३१५९</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१८</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>लेनदेन</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>अम्विका विष्ट</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>विवेक विष्ट</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>२०७२-०५-३१</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123159.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>१०</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१८४</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>१२३१३१</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१८</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>मर्कन्टायल कम्युनिकेशन प्रा।लि। का अ।प्रा। मधु कुमार अमात्य समेत ५</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>मन्त्रीपरषिद, प्रधानमन्त्री तथा मन्त्रीपरषिदको कार्यालय समेत ५</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>२०७२-१०-०७</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123131.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२२९</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>१२३१५०</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१८</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>मोही नामसारी</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>मु।स।गर्ने भोजलाल श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>चिनु थापा समेत ६ जना</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>२०७४-११-०८</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123150.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>७</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२७१</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>१२३२०५</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१९</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>नक्कली प्रमाण पत्र</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>दिनेश कुमार राउत</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>२०७२-०६-०५</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123205.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>०७०-CR-०२६०</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>१२३१७९</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>२०७०-०५-१९</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>नक्कली प्रमाण पत्र</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>धन बहादुर वली</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>२०७४-०७-२८</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123179.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>०७०-MS-००१०</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>१२३२४०</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२०</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>अदालतको अवहेलना</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>दिनेश त्रिपाटी</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>अध्यक्ष पुष्पकमल दाहाल ढप्रचण्डण्, एकिकृत नेपाल कम्न्युनिष्ट पार्टीको मुख्यालय, का।जि।का।म।न।पा। वडा नं। घछ पेरिस डांडा</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>२०७१-१२-१२</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123240.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२३७</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>१२३२४३</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२०</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>कलावती नाउं</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>केशवराम नाउं र सुदामा नाउनी</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>२०७३-०५-१५</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123243.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>१५</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२३८</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>१२३२४५</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२०</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>वकसपत्र</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>कलावती नाउं</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>सुदामा नाउंनी</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>२०७३-०५-१५</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123245.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>२</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१९२</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>१२३२१५</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२१</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>कान्छी भारती</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>भुमीसुधार कार्यालय काठमाडौं समेत ८</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>२०७४-०३-२५</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123215.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>४</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२३९</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>१२३३२५</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२१</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>जग्गा दर्ता</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>कृष्ण बहादुर श्रेष्ठ</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>सरस्वती श्रेष्ठ र मंगललाल महर्जन</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>२०७४-१२-०२</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123325.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>१४</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>०७०-WO-०१९७</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>१२३२५०</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२४</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>उत्प्रेषण</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>नेपाल क्लेरीड। हाउस ली।का अ।प्रा।स। नीलेश मान सिंह प्रधान</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>प्रमाणीकरण नियन्त्रकको कार्यालय सिंहदरवार काठमाडौं समेत २</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२६</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123250.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>१६</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>०७०-CR-०३१५</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>१२३३५०</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२४</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>विविध</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>उमेश कुवर र बासुदेव कुवर</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>२०७१-०८-१६</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123350.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>१७</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>०७०-CR-०३३४</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>१२३३८०</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२४</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>चोरी</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>छिरिङ लामा भन्ने जिरसिंह तामाङ र तेज बहादुर तामाङ</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>२०७१-१२-२६</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123380.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>९</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>०७०-WO-०२०४</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>१२३३१६</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२६</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>परमादेश</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>इन्द् प्रसाद वाग्ले</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>जिल्ला प्रशासन कार्यालय काठमाण्डौ समेत ८</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>२०७०-०६-०४</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123316.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>१२</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>०७०-CR-०३४६</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>१२३४२१</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२६</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>मनिता रार्इ</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>२०७१-०५-११</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123421.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>१३</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>०७०-CR-०३८३</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>१२३४८७</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२६</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>कर्तव्य ज्यान</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>राजन रार्इ र धनमाया रार्इ</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>२०७१-०५-११</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123487.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>१८</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>०७०-CR-०३६०</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>१२३४५०</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२६</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>फौजदारी</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>जवरजस्ती करणी</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>अर्जुन भन्ने पुष्प विश्वकर्मा</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>नेपाल सरकार</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>२०७२-०४-२९</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123450.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>३</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>०७०-WH-००१०</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>१२३३७३</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२७</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>रिट निवेदन</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>बन्दीप्रत्यक्षीकरण</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>ज्ञानु तितुङ भन्ने रमेश लामा</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>ललितपुर जिल्ला अदालत समेत५</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>२०७०-०८-२३</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123373.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>४</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>०७०-CI-०२५२</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>१२३४१८</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>२०७०-०५-२७</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>देवानी</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>अन्य</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>मगरे भर र गोजै भर</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>त्रिभुवन भर</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>२०७२-०९-२९</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>https://supremecourt.gov.np/cp/assets/downloads/supreme_123418.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
